--- a/biology/Neurosciences/Propriété_organoleptique/Propriété_organoleptique.xlsx
+++ b/biology/Neurosciences/Propriété_organoleptique/Propriété_organoleptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Propri%C3%A9t%C3%A9_organoleptique</t>
+          <t>Propriété_organoleptique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle propriété organoleptique d'un aliment un stimulus des sens de la flaveur, et plus particulièrement du goût et de l'odorat.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Propri%C3%A9t%C3%A9_organoleptique</t>
+          <t>Propriété_organoleptique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stimuli chimiques
-Il s'agit de substances capables d'activer les récepteurs olfactifs et gustatifs. Par exemple, la concentration en solutés ionisés tend à déclencher un goût salé (Na+, glutamate, etc).
+          <t>Stimuli chimiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de substances capables d'activer les récepteurs olfactifs et gustatifs. Par exemple, la concentration en solutés ionisés tend à déclencher un goût salé (Na+, glutamate, etc).
 Concrètement la substance chimique se lie à des récepteurs cellulaires, ce qui déclenche un potentiel d'action à destination des nerfs impliqués.
-Stimuli mécaniques
-Il s'agit de stimuli mécaniques qui peuvent à influencer la perception gustative. Il y a, par exemple, un plaisir mécanique à manger légèrement croustillant.
-Concrètement des pressions et frottements sollicitent les mécanorécepteurs, ce qui déclenche un potentiel d'action au niveau des nerfs impliqués[évasif].
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Propri%C3%A9t%C3%A9_organoleptique</t>
+          <t>Propriété_organoleptique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Perception et sensation</t>
+          <t>Principales classes de stimuli</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La sensation du goût est complexe, puisqu'elle recouvre plusieurs perceptions, odeurs et toucher compris (voire la vue). De même, la libération des substances olfactivement et gustativement actives est conditionnée par plusieurs aspects physiques comme la solubilité ou la diffusion (liquide comme gazeuse). S'ajoutent des perceptions purement physiques comme la température, la pression ou encore la texture en bouche (par exemple gluant versus filandreux)[1],[2].
+          <t>Stimuli mécaniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de stimuli mécaniques qui peuvent à influencer la perception gustative. Il y a, par exemple, un plaisir mécanique à manger légèrement croustillant.
+Concrètement des pressions et frottements sollicitent les mécanorécepteurs, ce qui déclenche un potentiel d'action au niveau des nerfs impliqués[évasif].
 </t>
         </is>
       </c>
@@ -560,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Propri%C3%A9t%C3%A9_organoleptique</t>
+          <t>Propriété_organoleptique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +596,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Perception et sensation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sensation du goût est complexe, puisqu'elle recouvre plusieurs perceptions, odeurs et toucher compris (voire la vue). De même, la libération des substances olfactivement et gustativement actives est conditionnée par plusieurs aspects physiques comme la solubilité ou la diffusion (liquide comme gazeuse). S'ajoutent des perceptions purement physiques comme la température, la pression ou encore la texture en bouche (par exemple gluant versus filandreux),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Propriété_organoleptique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Propri%C3%A9t%C3%A9_organoleptique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Intérêt économique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit du caractère d'un critère d'un produit pouvant être apprécié par les sens humains (toucher, goût, ouïe, odorat). L'appréciation professionnelle d'un produit est appelée analyse sensorielle (médecine, ingénierie, recherche en parfumerie…).
 </t>
